--- a/Documentation/ISA_part2.xlsx
+++ b/Documentation/ISA_part2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -410,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +798,7 @@
   <dimension ref="B5:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +873,7 @@
   <dimension ref="B6:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,25 +937,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,17 +963,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -978,12 +981,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
